--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,18 +449,36 @@
           <t>reason</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>personality_score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>personality_reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76.95</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Answer: The candidate has scored 76.95 out of 100 due to their demonstrated experience in NLP, PyTorch, Computer Vision, Python, ReactJS, Django, Data Analysis, Tensorflow, Sklearn, Image Processing, and other related technologies. Their projects showcase their ability to develop and improve language models, prototype and provide proof of concepts for deep learning, object detection/classification, and tracking, as well as detecting bias and toxicity in language models, cleaning and annotating data, segmenting ICU monitor images, and extracting vital data. The successful implementation of the FaceNet architecture also adds to the candidate's score.</t>
+The candidate has a high score due to their extensive experience with NLP and Python, as seen in their project 'LLMGuard'. They have also worked on various projects involving ReactJS, Django, and Computer Vision, which are all required skills for the job. Additionally, their experience with PyTorch, Tensorflow, and Sklearn in the project 'Multi Model Data Analysis for Annotation of Human Activities' showcases their proficiency in machine learning. Overall, the candidate's skills align well with the required skills for the job, leading to a high score.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The applicant shows willingness to come to Japan and work for the company. Their answers indicate a genuine interest in the country's work culture, as well as a desire to contribute to cutting-edge technologies in AI/ML. They are adaptable to other cultures and are open to working in different countries. Their expectations from the company align with their career plan and they are willing to learn new skills. Their strengths include being a hard-worker, a fast learner, and good at teamwork. They acknowledge their weaknesses and are taking steps to address them. They have faced and overcome challenges in previous projects, demonstrating problem-solving skills and adaptability. Their unique background and specialty make them stand out as a candidate. However, there is room for improvement in their ability to acquire new skills quickly and work independently, which slightly affects their score. Overall, they show the necessary soft skills such as communication, teamwork, problem-solving, time management, and adaptability.</t>
         </is>
       </c>
     </row>
@@ -469,12 +487,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>51.97</v>
+        <v>52.44</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Reasoning: The candidate has the required skills for the job and has demonstrated their proficiency in the projects they have worked on. However, their experience with NLP, Pytorch, Computer Vision, and Python is limited and they do not have a full understanding of the technology required for the job.</t>
+          <t>The candidate has experience with NLP, Pytorch, and Computer Vision, which are all required skills for the job. However, their score is moderate which could be due to limited experience with these skills. Their projects also demonstrate proficiency in Flutter, Dart, Firebase and web development, but do not directly align with the job description.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The applicant shows a strong willingness to go to Japan, citing their interest in the country's AI industry and work culture. They are also open to working in other countries. Their expectations from the company align with their career plan and they express a desire to contribute to cutting-edge technologies. The applicant's strengths include being a hard worker, quick learner, and team player. They acknowledge their weaknesses and have a plan to address them. They provide an example of overcoming a challenge through collaboration and problem-solving. Their unique background and specialization in data analytics make them stand out. Overall, the applicant demonstrates the soft skills the company is looking for, such as communication, adaptability, and problem-solving. However, they mention a preference for not working alone, which may slightly impact their score.</t>
         </is>
       </c>
     </row>
@@ -483,12 +508,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>80.91</v>
+        <v>82</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has demonstrated advanced knowledge and experience in the fields of NLP, Pytorch, Computer Vision, Python, and other technologies required for the job. The projects and skills used show a strong understanding of the requirements of the job position and the candidate is well suited for the role. This is why the candidate has been given a score of 80.91.</t>
+The candidate has a high score of 82.0, which indicates that they are well-suited for the NLP Engineer Remote job position. This is supported by their experience in projects such as 'Cloudphysician's Vital Extraction Challenge' and 'LLMGuard', which demonstrate their proficiency in NLP, Pytorch, Computer Vision, and Python. Additionally, their involvement in the 'Multi Model Data Analysis for Annotation of Human Activities' project also showcases their skills in Python, PyTorch, Tensorflow, and Sklearn. Overall, the candidate's projects align well with the required skills for the job, resulting in a high score.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The applicant has a strong willingness to come to Japan and work for the company. They express a deep interest in the field of AI and are fascinated by the work culture in Japan. They are open to working in different countries, including Japan. The applicant also expresses a desire to learn a new language while working in Japan, which shows their commitment to immersing themselves in the culture. They have clear expectations from the company and want to contribute to cutting-edge AI/ML technologies. Moreover, they have identified their strengths and weaknesses, and are taking steps to address them. The applicant also has a unique background in engineering and graphic design, which sets them apart and allows them to bridge the gap between technical and creative aspects in projects. They also possess a specialty in data analytics, which is valuable for the company. The only area that could be improved is the applicant's preference to not work alone, which may require some adaptability and development of independent working skills. Overall, the applicant demonstrates a strong willingness and a well-rounded personality, making them a good fit for the company.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,63 +465,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>79.76000000000001</v>
+        <v>83.91</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a high score due to their extensive experience with NLP and Python, as seen in their project 'LLMGuard'. They have also worked on various projects involving ReactJS, Django, and Computer Vision, which are all required skills for the job. Additionally, their experience with PyTorch, Tensorflow, and Sklearn in the project 'Multi Model Data Analysis for Annotation of Human Activities' showcases their proficiency in machine learning. Overall, the candidate's skills align well with the required skills for the job, leading to a high score.</t>
+          <t>The candidate has a high score of 83.91 as they have demonstrated strong skills in NLP, Computer Vision, and Python, which are required for the job. Their projects, such as LLMGuard and CloudPhysician's Vital Extraction Challenge, directly relate to the job description, showcasing their expertise in analyzing text data and image processing. The candidate's experience with ReactJS and Django also shows their ability to work with relevant frameworks. Overall, their skills and project experiences align well with the job requirements, justifying the high score.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant shows willingness to come to Japan and work for the company. Their answers indicate a genuine interest in the country's work culture, as well as a desire to contribute to cutting-edge technologies in AI/ML. They are adaptable to other cultures and are open to working in different countries. Their expectations from the company align with their career plan and they are willing to learn new skills. Their strengths include being a hard-worker, a fast learner, and good at teamwork. They acknowledge their weaknesses and are taking steps to address them. They have faced and overcome challenges in previous projects, demonstrating problem-solving skills and adaptability. Their unique background and specialty make them stand out as a candidate. However, there is room for improvement in their ability to acquire new skills quickly and work independently, which slightly affects their score. Overall, they show the necessary soft skills such as communication, teamwork, problem-solving, time management, and adaptability.</t>
+          <t>The applicant's willingness to come to Japan is evident in their strong interest in AI and the work culture of Japan. They also express adaptability to other cultures and a willingness to learn a new language. Their career plan aligns with the company's focus on AI/ML technologies. The applicant demonstrates good teamwork and problem-solving skills, as well as a willingness to address areas for improvement. Their unique background in both engineering and graphic design, along with specialization in data analytics, sets them apart and adds value to the company. Overall, the applicant's personality and willingness to come to Japan align well with the company's requirements, with slight room for further self-improvement.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>52.44</v>
+        <v>83.59</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has experience with NLP, Pytorch, and Computer Vision, which are all required skills for the job. However, their score is moderate which could be due to limited experience with these skills. Their projects also demonstrate proficiency in Flutter, Dart, Firebase and web development, but do not directly align with the job description.</t>
+          <t>The candidate's extensive experience in projects related to NLP, computer vision, and Python, along with their skills in NLP, PyTorch, Computer Vision, and Python, make them well-suited for the NLP Engineer Remote position. Their project experience demonstrates expertise in areas required for the job, resulting in a high score of 83.59.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to go to Japan, citing their interest in the country's AI industry and work culture. They are also open to working in other countries. Their expectations from the company align with their career plan and they express a desire to contribute to cutting-edge technologies. The applicant's strengths include being a hard worker, quick learner, and team player. They acknowledge their weaknesses and have a plan to address them. They provide an example of overcoming a challenge through collaboration and problem-solving. Their unique background and specialization in data analytics make them stand out. Overall, the applicant demonstrates the soft skills the company is looking for, such as communication, adaptability, and problem-solving. However, they mention a preference for not working alone, which may slightly impact their score.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>82</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The candidate has a high score of 82.0, which indicates that they are well-suited for the NLP Engineer Remote job position. This is supported by their experience in projects such as 'Cloudphysician's Vital Extraction Challenge' and 'LLMGuard', which demonstrate their proficiency in NLP, Pytorch, Computer Vision, and Python. Additionally, their involvement in the 'Multi Model Data Analysis for Annotation of Human Activities' project also showcases their skills in Python, PyTorch, Tensorflow, and Sklearn. Overall, the candidate's projects align well with the required skills for the job, resulting in a high score.</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>The applicant has a strong willingness to come to Japan and work for the company. They express a deep interest in the field of AI and are fascinated by the work culture in Japan. They are open to working in different countries, including Japan. The applicant also expresses a desire to learn a new language while working in Japan, which shows their commitment to immersing themselves in the culture. They have clear expectations from the company and want to contribute to cutting-edge AI/ML technologies. Moreover, they have identified their strengths and weaknesses, and are taking steps to address them. The applicant also has a unique background in engineering and graphic design, which sets them apart and allows them to bridge the gap between technical and creative aspects in projects. They also possess a specialty in data analytics, which is valuable for the company. The only area that could be improved is the applicant's preference to not work alone, which may require some adaptability and development of independent working skills. Overall, the applicant demonstrates a strong willingness and a well-rounded personality, making them a good fit for the company.</t>
+          <t xml:space="preserve">The applicant demonstrates strong willingness to come to Japan for work, citing interest in the country's advanced AI field and work culture. They have a clear career plan and are open to working in different countries, showcasing adaptability. Their expectation from the company aligns with their career goals, and they express a desire to contribute to cutting-edge technologies. They also show an understanding of their strengths, weaknesses, and have taken steps to address their areas for improvement. Their experience in problem-solving and teamwork, along with a background in both engineering and graphic design, positions them uniquely for the role. However, they acknowledge the need to improve their solo work skills, which is an important aspect for the company's requirement of adaptability. Hence, a score of 4 is given. </t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -465,11 +465,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>83.91</v>
+        <v>83.34</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 83.91 as they have demonstrated strong skills in NLP, Computer Vision, and Python, which are required for the job. Their projects, such as LLMGuard and CloudPhysician's Vital Extraction Challenge, directly relate to the job description, showcasing their expertise in analyzing text data and image processing. The candidate's experience with ReactJS and Django also shows their ability to work with relevant frameworks. Overall, their skills and project experiences align well with the job requirements, justifying the high score.</t>
+          <t>The candidate has a high score because they possess the required skills mentioned in the job description, such as NLP, Pytorch, Computer Vision, and Python. Their projects demonstrate experience in developing NLP pipelines, implementing machine learning models, and working on computer vision tasks, making them well-suited for the role of an NLP engineer.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant's willingness to come to Japan is evident in their strong interest in AI and the work culture of Japan. They also express adaptability to other cultures and a willingness to learn a new language. Their career plan aligns with the company's focus on AI/ML technologies. The applicant demonstrates good teamwork and problem-solving skills, as well as a willingness to address areas for improvement. Their unique background in both engineering and graphic design, along with specialization in data analytics, sets them apart and adds value to the company. Overall, the applicant's personality and willingness to come to Japan align well with the company's requirements, with slight room for further self-improvement.</t>
+          <t>The applicant shows a strong willingness to come to Japan, citing their interest in the country's AI advancements and work culture. Their career plan aligns well with their interest in AI/ML, and they express openness to working in Japan after graduation. They also mention a willingness to adapt to new cultures and languages, which demonstrates their adaptability. Additionally, their internship goals and expectations from the company show a genuine interest in contributing to cutting-edge technologies. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and communication, as seen in their example of overcoming a technical challenge with a collaborative approach. They also have a unique background in both engineering and graphic design, adding value to their skill set.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate's extensive experience in projects related to NLP, computer vision, and Python, along with their skills in NLP, PyTorch, Computer Vision, and Python, make them well-suited for the NLP Engineer Remote position. Their project experience demonstrates expertise in areas required for the job, resulting in a high score of 83.59.</t>
+          <t>The candidate has a score of 83.59 because they have experience working on projects that involve Computer Vision, Image Processing, Python, PyTorch, and Django Rest Framework, which are all skills required for the NLP engineer role. This indicates their proficiency and suitability for the job.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The applicant demonstrates strong willingness to come to Japan for work, citing interest in the country's advanced AI field and work culture. They have a clear career plan and are open to working in different countries, showcasing adaptability. Their expectation from the company aligns with their career goals, and they express a desire to contribute to cutting-edge technologies. They also show an understanding of their strengths, weaknesses, and have taken steps to address their areas for improvement. Their experience in problem-solving and teamwork, along with a background in both engineering and graphic design, positions them uniquely for the role. However, they acknowledge the need to improve their solo work skills, which is an important aspect for the company's requirement of adaptability. Hence, a score of 4 is given. </t>
+          <t>The applicant has shown a strong willingness to come to Japan based on their deep interest in the field of AI and the work culture in Japan. They have also expressed openness to working in different countries, including Japan. Their career plan aligns with the company's focus on AI/ML and backend development. They have demonstrated adaptability to different cultures and expressed a genuine interest in learning a new language while working in Japan. The applicant's strengths in teamwork and problem-solving, as well as their ability to derive insights from complex datasets, make them a strong candidate for the company. However, their preference not to work alone and the need to acquire new skills over time could be areas of improvement. Overall, the applicant's positive attitude, willingness to learn, and unique background make them a good fit for the company and the opportunity to work in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a high score because they possess the required skills mentioned in the job description, such as NLP, Pytorch, Computer Vision, and Python. Their projects demonstrate experience in developing NLP pipelines, implementing machine learning models, and working on computer vision tasks, making them well-suited for the role of an NLP engineer.</t>
+          <t>The candidate has a good score of 83.34. This is because they have experience in NLP, PyTorch, Computer Vision, and Python, which are the key skills required for the NLP Engineer role. Additionally, the candidate has worked on projects that involve bias and toxicity detection using language models, implementing FaceNet, and analyzing accelerometer and gyroscope readings for human activity annotation, demonstrating their proficiency in relevant areas.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to come to Japan, citing their interest in the country's AI advancements and work culture. Their career plan aligns well with their interest in AI/ML, and they express openness to working in Japan after graduation. They also mention a willingness to adapt to new cultures and languages, which demonstrates their adaptability. Additionally, their internship goals and expectations from the company show a genuine interest in contributing to cutting-edge technologies. In terms of personality, the applicant displays strengths in teamwork, problem-solving, and communication, as seen in their example of overcoming a technical challenge with a collaborative approach. They also have a unique background in both engineering and graphic design, adding value to their skill set.</t>
+          <t>The applicant has shown a strong interest in AI and a clear understanding of their career goals, which align with the company's focus on technology. They have also expressed a willingness to adapt to new cultures and learn new skills, demonstrating adaptability and openness. Additionally, the applicant has highlighted their ability to work well in a team, problem-solving skills, and their background in both engineering and graphic design, which exemplifies their strong communication and problem-solving abilities. However, there is room for improvement in their preference not to work alone, which may impact their time management skills. Overall, the applicant's strong interest in AI, adaptability, and relevant skills contribute to a high score.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a score of 83.59 because they have experience working on projects that involve Computer Vision, Image Processing, Python, PyTorch, and Django Rest Framework, which are all skills required for the NLP engineer role. This indicates their proficiency and suitability for the job.</t>
+          <t>The candidate has a high score of 83.59 because they possess the necessary skills mentioned in the job description such as NLP, Pytorch, Computer Vision, and Python. They have proven experience in relevant projects, including object detection and text recognition using Computer Vision and image processing, as well as multi-model data analysis for predicting human activities. These skills align well with the requirements of the NLP engineer role.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong willingness to come to Japan based on their deep interest in the field of AI and the work culture in Japan. They have also expressed openness to working in different countries, including Japan. Their career plan aligns with the company's focus on AI/ML and backend development. They have demonstrated adaptability to different cultures and expressed a genuine interest in learning a new language while working in Japan. The applicant's strengths in teamwork and problem-solving, as well as their ability to derive insights from complex datasets, make them a strong candidate for the company. However, their preference not to work alone and the need to acquire new skills over time could be areas of improvement. Overall, the applicant's positive attitude, willingness to learn, and unique background make them a good fit for the company and the opportunity to work in Japan.</t>
+          <t>The applicant has a strong interest and passion for AI and is motivated to work in Japan due to its leading position in the field. The applicant's willingness to adapt to a new culture and learn a new language, along with the desire to work on cutting-edge AI/ML projects, demonstrates good adaptability and enthusiasm for new experiences. The applicant also acknowledges the importance of teamwork, communication, and problem-solving in overcoming challenges, showcasing the desired soft skills. The only area of concern is the preference to not work alone, which might need further development. Overall, the applicant's positive attitude towards learning and contributing to the company's projects align well with the company's values and goals.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -465,11 +465,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>83.34</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate has a good score of 83.34. This is because they have experience in NLP, PyTorch, Computer Vision, and Python, which are the key skills required for the NLP Engineer role. Additionally, the candidate has worked on projects that involve bias and toxicity detection using language models, implementing FaceNet, and analyzing accelerometer and gyroscope readings for human activity annotation, demonstrating their proficiency in relevant areas.</t>
+          <t xml:space="preserve">
+The candidate has a high score of 81.79 because they possess the required skills of NLP, Pytorch, and Python, which are crucial for the job. They have demonstrated their expertise in NLP engineering through projects like 'LLMGuard'. Although they lack skills in ReactJS and Django, these are not essential for the job. Hence, the candidate's strong technical skills and relevant project experiences justify their high score.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +478,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has shown a strong interest in AI and a clear understanding of their career goals, which align with the company's focus on technology. They have also expressed a willingness to adapt to new cultures and learn new skills, demonstrating adaptability and openness. Additionally, the applicant has highlighted their ability to work well in a team, problem-solving skills, and their background in both engineering and graphic design, which exemplifies their strong communication and problem-solving abilities. However, there is room for improvement in their preference not to work alone, which may impact their time management skills. Overall, the applicant's strong interest in AI, adaptability, and relevant skills contribute to a high score.</t>
+          <t>The applicant has demonstrated a strong interest in Japan and its work culture, particularly in the field of AI. They have also expressed willingness to learn a new language and adapt to a new culture, showcasing adaptability. Their career plan aligns with the company's requirements, and they have shown a willingness to work in Japan. The applicant has exhibited strengths in communication, teamwork, and problem-solving skills, as well as a proactive approach to addressing weaknesses. Overall, the applicant's motivation, skills, and willingness to embrace the culture of Japan make them a strong candidate, earning a score of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -486,19 +487,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>83.59</v>
+        <v>86.23</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 83.59 because they possess the necessary skills mentioned in the job description such as NLP, Pytorch, Computer Vision, and Python. They have proven experience in relevant projects, including object detection and text recognition using Computer Vision and image processing, as well as multi-model data analysis for predicting human activities. These skills align well with the requirements of the NLP engineer role.</t>
+          <t>The candidate has a high score of 86.23. The candidate possesses the required skills of Pytorch, Computer Vision, and Python, which are essential for the NLP Engineer role. The candidate's experience in projects like 'Cloudphysician's Vital Extraction Challenge' and 'Multi Model Data Analysis for Annotation of Human Activities' demonstrate their proficiency in relevant technologies and their ability to extract and analyze data. Therefore, the candidate's strong skillset and project experience justify their high score.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has a strong interest and passion for AI and is motivated to work in Japan due to its leading position in the field. The applicant's willingness to adapt to a new culture and learn a new language, along with the desire to work on cutting-edge AI/ML projects, demonstrates good adaptability and enthusiasm for new experiences. The applicant also acknowledges the importance of teamwork, communication, and problem-solving in overcoming challenges, showcasing the desired soft skills. The only area of concern is the preference to not work alone, which might need further development. Overall, the applicant's positive attitude towards learning and contributing to the company's projects align well with the company's values and goals.</t>
+          <t>The applicant demonstrates a strong willingness to work in Japan, citing the country's leading position in AI and expressing an interest in being a part of the work culture. The applicant also shows adaptability by being open to working in different countries. They have a clear career plan and expectations from the company, demonstrating good time management and clear communication skills. They acknowledge their weaknesses and show a willingness to improve. The applicant's experience in handling setbacks, willingness to learn new skills, and unique background in engineering and graphic design indicate problem-solving abilities and adaptability. Overall, the applicant shows a strong alignment with the company's soft skill requirements, with room for further growth and development.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>tech_reason</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -469,16 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate has a high score of 81.79 because they possess the required skills of NLP, Pytorch, and Python, which are crucial for the job. They have demonstrated their expertise in NLP engineering through projects like 'LLMGuard'. Although they lack skills in ReactJS and Django, these are not essential for the job. Hence, the candidate's strong technical skills and relevant project experiences justify their high score.</t>
+          <t>The candidate lacks NLP experience, which is a key requirement for the role. Although the candidate has experience in related areas like data analysis and computer vision, the absence of NLP experience affects the overall suitability for the position.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong interest in Japan and its work culture, particularly in the field of AI. They have also expressed willingness to learn a new language and adapt to a new culture, showcasing adaptability. Their career plan aligns with the company's requirements, and they have shown a willingness to work in Japan. The applicant has exhibited strengths in communication, teamwork, and problem-solving skills, as well as a proactive approach to addressing weaknesses. Overall, the applicant's motivation, skills, and willingness to embrace the culture of Japan make them a strong candidate, earning a score of 4 out of 5.</t>
+          <t>The applicant has demonstrated a strong interest in AI and willingness to adapt to a new culture, which aligns with the company's values. The candidate's ability to work well in a team and address challenges through collaboration reflects their suitability for the role. However, the candidate's preference to not work alone may need to be considered within the team dynamics.</t>
         </is>
       </c>
     </row>
@@ -491,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has a high score of 86.23. The candidate possesses the required skills of Pytorch, Computer Vision, and Python, which are essential for the NLP Engineer role. The candidate's experience in projects like 'Cloudphysician's Vital Extraction Challenge' and 'Multi Model Data Analysis for Annotation of Human Activities' demonstrate their proficiency in relevant technologies and their ability to extract and analyze data. Therefore, the candidate's strong skillset and project experience justify their high score.</t>
+          <t>The candidate has strong experience in NLP, Computer Vision, and PyTorch, which are essential skills for the job. Although the candidate lacks experience in Tensorflow, their projects demonstrate proficiency in related technologies such as image processing, deep learning, and machine learning, making them a strong fit for the position.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates a strong willingness to work in Japan, citing the country's leading position in AI and expressing an interest in being a part of the work culture. The applicant also shows adaptability by being open to working in different countries. They have a clear career plan and expectations from the company, demonstrating good time management and clear communication skills. They acknowledge their weaknesses and show a willingness to improve. The applicant's experience in handling setbacks, willingness to learn new skills, and unique background in engineering and graphic design indicate problem-solving abilities and adaptability. Overall, the applicant shows a strong alignment with the company's soft skill requirements, with room for further growth and development.</t>
+          <t>The candidate's responses indicate a strong interest in AI and a willingness to work in Japan. They demonstrate good communication skills, ability to work in a team, problem-solving skills, and adaptability. The candidate's willingness to learn a new language aligns with the company's values, making them a suitable candidate for the role.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate lacks NLP experience, which is a key requirement for the role. Although the candidate has experience in related areas like data analysis and computer vision, the absence of NLP experience affects the overall suitability for the position.</t>
+          <t>The candidate lacks proficiency in NLP, a key requirement for the job. Additionally, the candidate does not have experience with ML prototyping or data preprocessing. However, the candidate has strong experience in computer vision and PyTorch, making them a good fit.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated a strong interest in AI and willingness to adapt to a new culture, which aligns with the company's values. The candidate's ability to work well in a team and address challenges through collaboration reflects their suitability for the role. However, the candidate's preference to not work alone may need to be considered within the team dynamics.</t>
+          <t>The candidate demonstrates a keen interest in AI and shows willingness to adapt to new cultures. They exhibit good teamwork and problem-solving skills, in addition to showing a desire to contribute to cutting-edge technologies. However, they need to work on improving their adaptability and time management skills.</t>
         </is>
       </c>
     </row>
@@ -490,15 +490,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has strong experience in NLP, Computer Vision, and PyTorch, which are essential skills for the job. Although the candidate lacks experience in Tensorflow, their projects demonstrate proficiency in related technologies such as image processing, deep learning, and machine learning, making them a strong fit for the position.</t>
+          <t>The candidate has strong skills in PyTorch, Python, and Computer Vision, which are essential for the job. However, the candidate lacks NLP experience, a crucial skill for this position.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The candidate's responses indicate a strong interest in AI and a willingness to work in Japan. They demonstrate good communication skills, ability to work in a team, problem-solving skills, and adaptability. The candidate's willingness to learn a new language aligns with the company's values, making them a suitable candidate for the role.</t>
+          <t>The candidate has expressed a keen interest in AI, a willingness to adapt to new cultures, and a strong desire to work in Japan. They have also demonstrated good communication and teamwork skills during project challenges, which aligns with the company's requirements for adaptability and problem-solving.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The candidate lacks proficiency in NLP, a key requirement for the job. Additionally, the candidate does not have experience with ML prototyping or data preprocessing. However, the candidate has strong experience in computer vision and PyTorch, making them a good fit.</t>
+          <t>The applicant has a high score because the projects the applicant has worked on demonstrate expertise in NLP, DL, ML, and computer vision, which are directly relevant to the job description. The applicant has utilized tools such as PyTorch, Python, and Computer Vision in their projects, aligning with the required skills for the job.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The candidate demonstrates a keen interest in AI and shows willingness to adapt to new cultures. They exhibit good teamwork and problem-solving skills, in addition to showing a desire to contribute to cutting-edge technologies. However, they need to work on improving their adaptability and time management skills.</t>
+          <t>The applicant shows a strong willingness to work in Japan and has demonstrated adaptability, communication, teamwork, and a desire to learn new skills and adapt to a new work culture. This aligns well with the soft skills and the company's values.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The candidate has strong skills in PyTorch, Python, and Computer Vision, which are essential for the job. However, the candidate lacks NLP experience, a crucial skill for this position.</t>
+          <t>The applicant has a high score due to the extensive experience in NLP, ML, and computer vision using Python, PyTorch, and ReactJS, which aligns with the job requirements.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The candidate has expressed a keen interest in AI, a willingness to adapt to new cultures, and a strong desire to work in Japan. They have also demonstrated good communication and teamwork skills during project challenges, which aligns with the company's requirements for adaptability and problem-solving.</t>
+          <t>The applicant demonstrates strong adaptability, teamwork, and problem-solving skills, while also expressing a willingness to work in Japan and learn a new language, earning a high score for compatibility with the company's soft skills and willingness to work abroad.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a high score because the projects the applicant has worked on demonstrate expertise in NLP, DL, ML, and computer vision, which are directly relevant to the job description. The applicant has utilized tools such as PyTorch, Python, and Computer Vision in their projects, aligning with the required skills for the job.</t>
+          <t>The applicant has been given a score of 81.79. The applicant’s projects demonstrate significant expertise in NLP, computer vision, and machine learning, which aligns with the requirements of the job description. The 'LLMGuard' project exhibits the ability to work with language models like GPT-2 and BERT, which is directly relevant to the job role. Additionally, the 'CloudPhysician's Vital Extraction Challenge' project showcases advanced skills in computer vision and image processing. The applicant’s proficiency in Python, PyTorch, and ReactJS is evident from the projects, further indicating strong alignment with the required skills for the job. However, the absence of explicit NLP project experience and the use of JavaScript, not mentioned in the required skills, may have influenced the score given to the applicant.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant shows a strong willingness to work in Japan and has demonstrated adaptability, communication, teamwork, and a desire to learn new skills and adapt to a new work culture. This aligns well with the soft skills and the company's values.</t>
+          <t>The candidate has expressed a deep interest in AI and a willingness to adapt to new cultures, which aligns with the soft skills required by the company. The applicant's response also indicates a keenness to contribute to cutting-edge technologies and a desire to work in Japan for professional development. Moreover, the emphasis on teamwork, adaptability, and problem-solving in overcoming challenges further reflects positive attributes. However, the preference to not work alone and the need to improve individual working skills slightly impact the overall score, leading to a rating of 4 out of 5.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a high score due to the extensive experience in NLP, ML, and computer vision using Python, PyTorch, and ReactJS, which aligns with the job requirements.</t>
+          <t>The applicant has been involved in projects that align very closely with the job description. The 'Cloudphysician's Vital Extraction Challenge' and 'LLMGuard' projects demonstrate strong skills in Computer Vision, Image Processing, NLP, and Deep Learning, using frameworks like PyTorch and Python - all of which are essential for the NLP Engineer role. The 'Multi Model Data Analysis for Annotation of Human Activities' project also showcases proficiency in Python, PyTorch, and Tensorflow, indicating a good fit for the position. Additionally, the applicant's skills in Django Rest Framework and ReactJS from the 'LLMGuard' and 'Website for the Literature Society of the college' projects display versatility and experience in web development, which can be valuable for prototyping in NLP and computer vision. However, the applicant does not explicitly mention NLP experience in the projects, which might have slightly affected the score.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant demonstrates strong adaptability, teamwork, and problem-solving skills, while also expressing a willingness to work in Japan and learn a new language, earning a high score for compatibility with the company's soft skills and willingness to work abroad.</t>
+          <t>The applicant has demonstrated strong communication skills, adaptability to new cultures, and a willingness to learn and contribute to cutting-edge AI/ML technologies. The applicant's positive attitude towards working in Japan, openness to learning a new language, and expressed interest in being part of Japan's work culture reflects a high level of adaptability and enthusiasm. Additionally, the applicant's emphasis on teamwork, open communication, problem-solving, and the ability to bridge technical and creative aspects are aligned with the company's soft skills requirements. Overall, the applicant's eagerness to contribute, learn, and adapt indicates a strong fit for the company, warranting a score of 4.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has been given a score of 81.79. The applicant’s projects demonstrate significant expertise in NLP, computer vision, and machine learning, which aligns with the requirements of the job description. The 'LLMGuard' project exhibits the ability to work with language models like GPT-2 and BERT, which is directly relevant to the job role. Additionally, the 'CloudPhysician's Vital Extraction Challenge' project showcases advanced skills in computer vision and image processing. The applicant’s proficiency in Python, PyTorch, and ReactJS is evident from the projects, further indicating strong alignment with the required skills for the job. However, the absence of explicit NLP project experience and the use of JavaScript, not mentioned in the required skills, may have influenced the score given to the applicant.</t>
+          <t>The applicant has been involved in projects that demonstrate a strong grasp of NLP, computer vision, and data analysis. The projects 'LLMGuard' and 'CloudPhysician's Vital Extraction Challenge' showcase the applicant's proficiency in NLP and computer vision, while the project 'Multi Model Data Analysis for Annotation of Human Activities' highlights the ability to perform data analysis using PyTorch and Python. Additionally, the implementation of the FaceNet research paper with PyTorch indicates a solid foundation in working with this framework. The applicant also possesses skills in PyTorch and Python, aligning with the company's requirements. However, the lack of specific mention of experience in language model training and model development could be a minor gap. Overall, the applicant's projects and skills demonstrate a strong alignment with the job description, which justifies the given score.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The candidate has expressed a deep interest in AI and a willingness to adapt to new cultures, which aligns with the soft skills required by the company. The applicant's response also indicates a keenness to contribute to cutting-edge technologies and a desire to work in Japan for professional development. Moreover, the emphasis on teamwork, adaptability, and problem-solving in overcoming challenges further reflects positive attributes. However, the preference to not work alone and the need to improve individual working skills slightly impact the overall score, leading to a rating of 4 out of 5.</t>
+          <t>The applicant has shown a keen interest in working in Japan and has articulated a strong desire to be part of the country's work culture. The responses reflect a willingness to adapt to a new environment and learn the Japanese language. The applicant's acknowledgment of skills in teamwork and open communication, as well as the emphasis on problem-solving and adaptability, indicate a strong alignment with the soft skills sought by the company. Additionally, the applicant's proactive approach to addressing weaknesses and learning from challenges demonstrates a growth mindset. Therefore, the applicant receives a score of 4 out of 5 for the willingness to work in Japan and the exhibited personality traits.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has been involved in projects that align very closely with the job description. The 'Cloudphysician's Vital Extraction Challenge' and 'LLMGuard' projects demonstrate strong skills in Computer Vision, Image Processing, NLP, and Deep Learning, using frameworks like PyTorch and Python - all of which are essential for the NLP Engineer role. The 'Multi Model Data Analysis for Annotation of Human Activities' project also showcases proficiency in Python, PyTorch, and Tensorflow, indicating a good fit for the position. Additionally, the applicant's skills in Django Rest Framework and ReactJS from the 'LLMGuard' and 'Website for the Literature Society of the college' projects display versatility and experience in web development, which can be valuable for prototyping in NLP and computer vision. However, the applicant does not explicitly mention NLP experience in the projects, which might have slightly affected the score.</t>
+          <t>The applicant has been involved in projects that align well with the job description. The 'Cloudphysician's Vital Extraction Challenge' project demonstrates skills in computer vision and image processing, which are directly relevant to the role's requirement for NLP and computer vision using Pytorch and Python. The 'LLMGuard' project also showcases experience in NLP-related tasks such as hate speech detection. Additionally, the use of PyTorch, Python, and Django Rest Framework in the projects indicates proficiency in the required skills. However, the applicant lacks direct experience in NLP tasks, which could have led to a slightly lower score.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong communication skills, adaptability to new cultures, and a willingness to learn and contribute to cutting-edge AI/ML technologies. The applicant's positive attitude towards working in Japan, openness to learning a new language, and expressed interest in being part of Japan's work culture reflects a high level of adaptability and enthusiasm. Additionally, the applicant's emphasis on teamwork, open communication, problem-solving, and the ability to bridge technical and creative aspects are aligned with the company's soft skills requirements. Overall, the applicant's eagerness to contribute, learn, and adapt indicates a strong fit for the company, warranting a score of 4.</t>
+          <t>The applicant's willingness to work in Japan is evident from their admiration for Japan's work culture, the desire to learn a new language, and the flexibility to work in different countries. Their ability to adapt to new cultures and the emphasis on teamwork and learning new skills indicate strong soft skills. However, the preference not to work alone and the need for time to acquire new skills highlight areas for improvement in adaptability and time management, resulting in a score of 4.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has been involved in projects that demonstrate a strong grasp of NLP, computer vision, and data analysis. The projects 'LLMGuard' and 'CloudPhysician's Vital Extraction Challenge' showcase the applicant's proficiency in NLP and computer vision, while the project 'Multi Model Data Analysis for Annotation of Human Activities' highlights the ability to perform data analysis using PyTorch and Python. Additionally, the implementation of the FaceNet research paper with PyTorch indicates a solid foundation in working with this framework. The applicant also possesses skills in PyTorch and Python, aligning with the company's requirements. However, the lack of specific mention of experience in language model training and model development could be a minor gap. Overall, the applicant's projects and skills demonstrate a strong alignment with the job description, which justifies the given score.</t>
+          <t>The applicant has a strong background in NLP, Deep Learning, and Computer Vision, as evidenced by their projects such as 'LLMGuard' which involves detecting bias and toxicity in language models, 'CloudPhysician's Vital Extraction Challenge' which involves fine-tuning DETR and detectron models, and 'FaceNet Implementation' which involves training on CelebA dataset. The applicant is proficient in relevant technologies such as PyTorch, Python, and Computer Vision. Despite not possessing direct experience in pre-processing text data, the applicant's experience in NLP and data analysis suggests an ability to adapt and learn quickly in this area. Overall, the applicant's skill set aligns well with the requirements of the NLP Engineer role.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has shown a keen interest in working in Japan and has articulated a strong desire to be part of the country's work culture. The responses reflect a willingness to adapt to a new environment and learn the Japanese language. The applicant's acknowledgment of skills in teamwork and open communication, as well as the emphasis on problem-solving and adaptability, indicate a strong alignment with the soft skills sought by the company. Additionally, the applicant's proactive approach to addressing weaknesses and learning from challenges demonstrates a growth mindset. Therefore, the applicant receives a score of 4 out of 5 for the willingness to work in Japan and the exhibited personality traits.</t>
+          <t>The applicant has demonstrated strong adaptability, willingness to immerse into a new culture, and a clear interest in being part of Japan's work culture. The applicant's responses reflect a strong alignment with the company's soft skills requirements, particularly in communication, teamwork, problem-solving, and adaptability. The candidate's expressed desire to contribute to cutting-edge AI/ML technologies and learn new skills during the internship demonstrates a proactive and ambitious attitude. Overall, the applicant's positive outlook and eagerness to embrace new experiences indicate a high level of readiness and potential for success in working in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has been involved in projects that align well with the job description. The 'Cloudphysician's Vital Extraction Challenge' project demonstrates skills in computer vision and image processing, which are directly relevant to the role's requirement for NLP and computer vision using Pytorch and Python. The 'LLMGuard' project also showcases experience in NLP-related tasks such as hate speech detection. Additionally, the use of PyTorch, Python, and Django Rest Framework in the projects indicates proficiency in the required skills. However, the applicant lacks direct experience in NLP tasks, which could have led to a slightly lower score.</t>
+          <t>The applicant has a strong background in Python, PyTorch, Computer Vision, and has experience working on projects involving NLP, DL, ML, and computer vision using PyTorch and Python. The applicant has also demonstrated skills in image processing, TensorFlow, and Django Rest Framework, which are valuable for the NLP Engineer position. However, the applicant does not have explicit experience in NLP, which is a key requirement for the job. Additionally, the applicant's projects showcase a proactive approach to problem-solving, team collaboration, and adaptability, which are essential for the role. Overall, the applicant's experience aligns well with the technical aspects of the job, but there is a gap in NLP expertise, which could impact their suitability for the position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant's willingness to work in Japan is evident from their admiration for Japan's work culture, the desire to learn a new language, and the flexibility to work in different countries. Their ability to adapt to new cultures and the emphasis on teamwork and learning new skills indicate strong soft skills. However, the preference not to work alone and the need for time to acquire new skills highlight areas for improvement in adaptability and time management, resulting in a score of 4.</t>
+          <t>The applicant has expressed a strong interest in working in Japan and has shown willingness to adapt to a new culture and language. The applicant’s responses indicate good communication skills, a positive attitude towards teamwork and problem-solving, and a clear motivation to work on cutting-edge AI/ML technologies. The applicant's willingness to relocate and adaptability make them a suitable candidate for the job, earning a score of 4 out of 5.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,32 +465,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>81.79000000000001</v>
+        <v>77.75</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in NLP, Deep Learning, and Computer Vision, as evidenced by their projects such as 'LLMGuard' which involves detecting bias and toxicity in language models, 'CloudPhysician's Vital Extraction Challenge' which involves fine-tuning DETR and detectron models, and 'FaceNet Implementation' which involves training on CelebA dataset. The applicant is proficient in relevant technologies such as PyTorch, Python, and Computer Vision. Despite not possessing direct experience in pre-processing text data, the applicant's experience in NLP and data analysis suggests an ability to adapt and learn quickly in this area. Overall, the applicant's skill set aligns well with the requirements of the NLP Engineer role.</t>
+          <t>The applicant has worked on a variety of projects that demonstrate strong technical skills and experience in the relevant areas. The project 'LLMGuard' showcases the use of NLP models like GPT-2 and BERT, as well as the development of a user-friendly UI and backend, highlighting expertise in NLP, Python, and ReactJS. Additionally, the project 'CloudPhysician's Vital Extraction Challenge' exhibits proficiency in Computer Vision and Image Processing, essential for the role. Although the applicant lacks direct experience with PyTorch, their experience with Tensorflow and Python demonstrates a strong foundation in deep learning frameworks. The applicant's wide range of technical skills and hands-on experience make them well-suited for the NLP Engineer role.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong adaptability, willingness to immerse into a new culture, and a clear interest in being part of Japan's work culture. The applicant's responses reflect a strong alignment with the company's soft skills requirements, particularly in communication, teamwork, problem-solving, and adaptability. The candidate's expressed desire to contribute to cutting-edge AI/ML technologies and learn new skills during the internship demonstrates a proactive and ambitious attitude. Overall, the applicant's positive outlook and eagerness to embrace new experiences indicate a high level of readiness and potential for success in working in Japan.</t>
+          <t>The applicant's answers reflect a strong willingness to work in Japan, emphasizing a desire to learn from Japanese work culture and citing personal alignment with Japanese values like hard work and dedication. The applicant also expresses a clear understanding of their strengths and areas for improvement, showcasing strong self-awareness and a commitment to continuous self-improvement. Their responses demonstrate adaptability, strong communication skills, and a positive attitude, indicating a good fit for the company's cultural values and the willingness to work in Japan.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>86.23</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in Python, PyTorch, Computer Vision, and has experience working on projects involving NLP, DL, ML, and computer vision using PyTorch and Python. The applicant has also demonstrated skills in image processing, TensorFlow, and Django Rest Framework, which are valuable for the NLP Engineer position. However, the applicant does not have explicit experience in NLP, which is a key requirement for the job. Additionally, the applicant's projects showcase a proactive approach to problem-solving, team collaboration, and adaptability, which are essential for the role. Overall, the applicant's experience aligns well with the technical aspects of the job, but there is a gap in NLP expertise, which could impact their suitability for the position.</t>
+          <t>The applicant has a good score based on the projects he has worked on, which showcase his proficiency in a variety of technologies such as ReactJS, Flutter, WebRTC, and NodeJS. Although the job requires skills in NLP, Pytorch, and Computer Vision, the applicant's strong technical background and experience in building web and mobile applications demonstrate his ability to learn and adapt to new technologies. Additionally, the applicant's experience in developing real-time communication applications using WebSockets and WebRTC API aligns with the problem-solving and adaptability skills required for the role.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,49 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in working in Japan and has shown willingness to adapt to a new culture and language. The applicant’s responses indicate good communication skills, a positive attitude towards teamwork and problem-solving, and a clear motivation to work on cutting-edge AI/ML technologies. The applicant's willingness to relocate and adaptability make them a suitable candidate for the job, earning a score of 4 out of 5.</t>
+          <t>The applicant has displayed a strong willingness to work in Japan, citing an interest in the work culture and expressing readiness to adapt to a new environment. The applicant's desire to work on cutting-edge AI/ML technologies, coupled with the openness to learn a new language, demonstrates a strong motivation and adaptability. Furthermore, the applicant's emphasis on teamwork and collaborative problem-solving align with the soft skills sought by the company, indicating a good fit for the company's culture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The applicant has extensive experience in projects related to NLP, Pytorch, and Computer Vision, which are directly in line with the company's requirements. The applicant has demonstrated hands-on experience in developing and improving models for NLP and utilizing Pytorch and Computer Vision in various projects. Although some specific skills like NLP are not explicitly mentioned in the projects, the applicant's overall technical expertise and the demonstrated ability to work with similar technologies make them well-suited for the role. The diverse range of projects showcases the applicant's adaptability and problem-solving skills, which are crucial for the position. However, the lack of explicit NLP project experience could be a minor concern, but the applicant's strong foundation in related domains compensates for it.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The applicant has expressed a keen interest in working in Japan and has demonstrated adaptability to new cultures. They have highlighted the opportunity to learn a new language and expressed a strong desire to be a part of Japan's work culture. Their willingness to work in Japan and openness to adaptability align with the company's requirements for a candidate who is receptive to new environments. Additionally, the applicant has emphasized their ability to work well in teams and their commitment to contribute to cutting-edge technologies, reflecting qualities such as teamwork, problem-solving, and adaptability, which are desirable traits for the company. The applicant's proactive approach to addressing weaknesses and leveraging their unique background further exhibits a willingness to grow and succeed in a new professional setting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The applicant has demonstrated strong skills in JavaScript, HTML, and CSS through projects like 'Video Conferencing Project' and 'TEDxIITGuwahati Website'. Although these skills are not directly related to the required skills of NLP, Pytorch, Computer Vision, and Python, they showcase the applicant's proficiency in web development, which could be valuable for frontend development or interface design within the NLP field. The applicant's API integration skills also demonstrate an understanding of integrating different systems, which could be transferable to the NLP domain. While the applicant's projects do not directly align with the required skills, they exhibit a strong foundation in programming and web development, which can be beneficial for certain aspects of the role.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Based on the applicant's answers, it is evident that the applicant is deeply interested in AI and is willing to work in Japan. The applicant has expressed a strong fascination for the work culture in Japan and has shown a willingness to adapt to a new culture and learn a new language. Additionally, the applicant has demonstrated good communication skills and a positive attitude towards working in a team. Overall, the applicant's responses indicate a strong willingness to work in Japan and align with the company's soft skills expectations, hence receiving a score of 4 out of 5.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,15 +469,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has worked on a variety of projects that demonstrate strong technical skills and experience in the relevant areas. The project 'LLMGuard' showcases the use of NLP models like GPT-2 and BERT, as well as the development of a user-friendly UI and backend, highlighting expertise in NLP, Python, and ReactJS. Additionally, the project 'CloudPhysician's Vital Extraction Challenge' exhibits proficiency in Computer Vision and Image Processing, essential for the role. Although the applicant lacks direct experience with PyTorch, their experience with Tensorflow and Python demonstrates a strong foundation in deep learning frameworks. The applicant's wide range of technical skills and hands-on experience make them well-suited for the NLP Engineer role.</t>
+          <t>The applicant has extensive experience in projects related to natural language processing (NLP), computer vision, and PyTorch, which are directly in line with the required skills for the position. The projects 'LLMGuard', 'Literature Society IITJ Website', and 'Multi Model Data Analysis for Annotation of Human Activities' demonstrate the applicant's proficiency in NLP, Python, and PyTorch. Furthermore, the project 'CloudPhysician's Vital Extraction Challenge' showcases the applicant's expertise in computer vision and image processing. Although the applicant does not possess direct experience with PyTorch, considering their strong background in Python and related projects, it is reasonable to assume they can quickly adapt to using PyTorch for the required tasks. Overall, the applicant's project portfolio aligns well with the technical requirements of the job, demonstrating significant compatibility with the company's needs and therefore justifying the given score.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant's answers reflect a strong willingness to work in Japan, emphasizing a desire to learn from Japanese work culture and citing personal alignment with Japanese values like hard work and dedication. The applicant also expresses a clear understanding of their strengths and areas for improvement, showcasing strong self-awareness and a commitment to continuous self-improvement. Their responses demonstrate adaptability, strong communication skills, and a positive attitude, indicating a good fit for the company's cultural values and the willingness to work in Japan.</t>
+          <t>The applicant has exhibited exceptional communication skills in their responses, articulately expressing their strong alignment with Japanese work culture and values. Additionally, their proactive approach to self-improvement and continuous learning, as well as the demonstrated adaptability to diverse cultures, indicates their well-rounded personality traits. Furthermore, their expressed desire for mentorship, collaboration, and contribution to the company's objectives exemplifies qualities of teamwork, problem-solving, and time management. The applicant's evident enthusiasm for Japanese work culture and their holistic approach toward personal and professional growth solidify their suitability for the role, warranting a high score.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a good score based on the projects he has worked on, which showcase his proficiency in a variety of technologies such as ReactJS, Flutter, WebRTC, and NodeJS. Although the job requires skills in NLP, Pytorch, and Computer Vision, the applicant's strong technical background and experience in building web and mobile applications demonstrate his ability to learn and adapt to new technologies. Additionally, the applicant's experience in developing real-time communication applications using WebSockets and WebRTC API aligns with the problem-solving and adaptability skills required for the role.</t>
+          <t>The applicant has significant experience in building web and mobile applications using a variety of technologies such as ReactJS, Flutter, NodeJS, ExpressJS, Firebase, Docker, etc. While the job description emphasizes NLP, Pytorch, Computer Vision, and Python, the applicant's skills are more aligned with front-end and full-stack development. Although the applicant has shown proficiency in related areas like WebRTC and Socket.IO, there is a notable gap in direct experience with the specific technologies mentioned in the job description. However, the applicant's diverse technical background and experience working with real-time communication technologies demonstrate their adaptability and problem-solving abilities, which are valuable traits for a tech role. The applicant has a strong foundation in web and mobile application development, but may require additional training and experience in NLP, Pytorch, Computer Vision, and Python to fully meet the requirements of the position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has displayed a strong willingness to work in Japan, citing an interest in the work culture and expressing readiness to adapt to a new environment. The applicant's desire to work on cutting-edge AI/ML technologies, coupled with the openness to learn a new language, demonstrates a strong motivation and adaptability. Furthermore, the applicant's emphasis on teamwork and collaborative problem-solving align with the soft skills sought by the company, indicating a good fit for the company's culture.</t>
+          <t>The applicant has displayed a high level of adaptability, as evidenced by their willingness to work in various countries, including Japan, and their openness to learning a new language. Additionally, the applicant's collaborative approach to problem-solving and emphasis on teamwork align with the company's soft skill requirements. Their commitment to contributing to cutting-edge technologies and desire to bridge technical and creative aspects showcase strong problem-solving and communication abilities. While there are areas for improvement, such as the preference to work in a team and the need to enhance individual skill acquisition, the applicant's demonstrated adaptability, teamwork, and problem-solving capabilities warrant a high score for their personality and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has extensive experience in projects related to NLP, Pytorch, and Computer Vision, which are directly in line with the company's requirements. The applicant has demonstrated hands-on experience in developing and improving models for NLP and utilizing Pytorch and Computer Vision in various projects. Although some specific skills like NLP are not explicitly mentioned in the projects, the applicant's overall technical expertise and the demonstrated ability to work with similar technologies make them well-suited for the role. The diverse range of projects showcases the applicant's adaptability and problem-solving skills, which are crucial for the position. However, the lack of explicit NLP project experience could be a minor concern, but the applicant's strong foundation in related domains compensates for it.</t>
+          <t>The applicant has a strong background in NLP, Computer Vision, and Pytorch, which are key skills required for the job. The projects show experience in developing NLP and Computer Vision models using Python, PyTorch, and other relevant tools. The applicant has demonstrated the ability to work on cutting-edge technologies, analyze data, and develop and improve models, aligning with the job description. However, the applicant lacks direct experience in collecting and preprocessing text corpora, a key aspect of the job requirement. While the applicant's skills are impressive, this gap may impact their suitability for the role.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has expressed a keen interest in working in Japan and has demonstrated adaptability to new cultures. They have highlighted the opportunity to learn a new language and expressed a strong desire to be a part of Japan's work culture. Their willingness to work in Japan and openness to adaptability align with the company's requirements for a candidate who is receptive to new environments. Additionally, the applicant has emphasized their ability to work well in teams and their commitment to contribute to cutting-edge technologies, reflecting qualities such as teamwork, problem-solving, and adaptability, which are desirable traits for the company. The applicant's proactive approach to addressing weaknesses and leveraging their unique background further exhibits a willingness to grow and succeed in a new professional setting.</t>
+          <t>The applicant demonstrates strong adaptability and a willingness to work in Japan. Their proactive approach to addressing weaknesses and ability to work well in a team, as evidenced by the answers provided, aligns with the company's soft skills requirements. The applicant's openness to learning a new language and interest in Japan's work culture further reflects their willingness to embrace new cultural experiences. Their ability to overcome challenges and foster collaborative problem-solving demonstrates strong problem-solving and teamwork skills. Overall, the applicant appears to be a good fit for the company's soft skill requirements and willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong skills in JavaScript, HTML, and CSS through projects like 'Video Conferencing Project' and 'TEDxIITGuwahati Website'. Although these skills are not directly related to the required skills of NLP, Pytorch, Computer Vision, and Python, they showcase the applicant's proficiency in web development, which could be valuable for frontend development or interface design within the NLP field. The applicant's API integration skills also demonstrate an understanding of integrating different systems, which could be transferable to the NLP domain. While the applicant's projects do not directly align with the required skills, they exhibit a strong foundation in programming and web development, which can be beneficial for certain aspects of the role.</t>
+          <t>The applicant has experience in web development projects using JavaScript, HTML, and CSS, which demonstrates strong programming and front-end development skills. However, the job description specifically requires skills in NLP, Pytorch, Computer Vision, and Python, which the applicant does not possess based on the given projects and skills. While the applicant's experience in web development is commendable, it does not directly align with the company's requirements for a NLP Engineer. The applicant's technical skills are impressive but not entirely suitable for the specific role of NLP Engineer at the company.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Based on the applicant's answers, it is evident that the applicant is deeply interested in AI and is willing to work in Japan. The applicant has expressed a strong fascination for the work culture in Japan and has shown a willingness to adapt to a new culture and learn a new language. Additionally, the applicant has demonstrated good communication skills and a positive attitude towards working in a team. Overall, the applicant's responses indicate a strong willingness to work in Japan and align with the company's soft skills expectations, hence receiving a score of 4 out of 5.</t>
+          <t>The applicant has demonstrated strong communication skills by expressing a keen interest in working in Japan and adapting to a new culture. The responses indicate a willingness to collaborate with a team and a positive attitude towards overcoming challenges. The applicant's enthusiasm for learning new skills and contributing to advanced AI/ML technologies aligns with the company's expectations. However, the applicant also acknowledges the need to improve on working alone, which shows self-awareness and a willingness to address weaknesses. Overall, the applicant's responses reflect a strong personality and a high level of adaptability, making them well-suited for the company's soft skill requirements and their willingness to work in Japan.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_3.xlsx
+++ b/main/results/jdk_3.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has extensive experience in projects related to natural language processing (NLP), computer vision, and PyTorch, which are directly in line with the required skills for the position. The projects 'LLMGuard', 'Literature Society IITJ Website', and 'Multi Model Data Analysis for Annotation of Human Activities' demonstrate the applicant's proficiency in NLP, Python, and PyTorch. Furthermore, the project 'CloudPhysician's Vital Extraction Challenge' showcases the applicant's expertise in computer vision and image processing. Although the applicant does not possess direct experience with PyTorch, considering their strong background in Python and related projects, it is reasonable to assume they can quickly adapt to using PyTorch for the required tasks. Overall, the applicant's project portfolio aligns well with the technical requirements of the job, demonstrating significant compatibility with the company's needs and therefore justifying the given score.</t>
+          <t>The applicant has a strong background in developing projects related to NLP, Computer Vision, and data analysis, which are all directly relevant to the job requirements. The applicant's experience in developing bias/toxicity detection pipelines using GPT-2, BERT, and other models demonstrates a solid understanding of NLP. Furthermore, the applicant's work on fine-tuning DETR and detectron for ICU monitor segmentation and vital extraction shows a clear competency in Computer Vision. Although the applicant's skills in PyTorch and NLP are not explicitly listed, their experience with Python and related frameworks and libraries suggests a strong foundation that can be leveraged to quickly adapt to the specific tools and technologies required for the role. Therefore, based on the applicant's relevant projects and skills, it can be concluded that the applicant aligns well with the job requirements.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has exhibited exceptional communication skills in their responses, articulately expressing their strong alignment with Japanese work culture and values. Additionally, their proactive approach to self-improvement and continuous learning, as well as the demonstrated adaptability to diverse cultures, indicates their well-rounded personality traits. Furthermore, their expressed desire for mentorship, collaboration, and contribution to the company's objectives exemplifies qualities of teamwork, problem-solving, and time management. The applicant's evident enthusiasm for Japanese work culture and their holistic approach toward personal and professional growth solidify their suitability for the role, warranting a high score.</t>
+          <t>The applicant has displayed a high degree of willingness and adaptability to work in Japan. Their expressed interest in learning from Japanese work culture, appreciation for values like hard work and dedication, and desire to immerse themselves in the Japanese work environment all indicate a strong motivation to work in Japan. The applicant's recognition of cultural differences and their ability to find common values between India and Japan demonstrate a high level of adaptability. Moreover, the applicant's emphasis on seeking feedback and continuously improving their communication skills reflects a commitment to personal and professional development, aligning with the company's soft skills requirements.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has significant experience in building web and mobile applications using a variety of technologies such as ReactJS, Flutter, NodeJS, ExpressJS, Firebase, Docker, etc. While the job description emphasizes NLP, Pytorch, Computer Vision, and Python, the applicant's skills are more aligned with front-end and full-stack development. Although the applicant has shown proficiency in related areas like WebRTC and Socket.IO, there is a notable gap in direct experience with the specific technologies mentioned in the job description. However, the applicant's diverse technical background and experience working with real-time communication technologies demonstrate their adaptability and problem-solving abilities, which are valuable traits for a tech role. The applicant has a strong foundation in web and mobile application development, but may require additional training and experience in NLP, Pytorch, Computer Vision, and Python to fully meet the requirements of the position.</t>
+          <t>The applicant's projects primarily focused on web and mobile app development using technologies like ReactJS, Flutter, NodeJS, and WebRTC, which are not directly aligned with the job description requirements of NLP, Pytorch, and Computer Vision. While the applicant demonstrates strong technical skills in web and mobile app development, the lack of direct experience or projects related to NLP and Computer Vision may be a factor contributing to the moderate score. However, the applicant's proficiency in technologies like ReactJS and NodeJS showcases an ability to adapt and learn new technologies, which could be beneficial in transitioning to the required skills for the job.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has displayed a high level of adaptability, as evidenced by their willingness to work in various countries, including Japan, and their openness to learning a new language. Additionally, the applicant's collaborative approach to problem-solving and emphasis on teamwork align with the company's soft skill requirements. Their commitment to contributing to cutting-edge technologies and desire to bridge technical and creative aspects showcase strong problem-solving and communication abilities. While there are areas for improvement, such as the preference to work in a team and the need to enhance individual skill acquisition, the applicant's demonstrated adaptability, teamwork, and problem-solving capabilities warrant a high score for their personality and willingness to work in Japan.</t>
+          <t>The applicant's responses reflect a strong willingness to adapt to new cultures and work environments, as well as an interest in Japan's work culture and language. The applicant's emphasis on teamwork, problem-solving, and openness to learning new skills align well with the company's soft skill requirements. Additionally, the applicant's proactive approach to addressing weaknesses and the ability to bridge technical and creative aspects demonstrate a well-rounded and adaptable personality suited for the company's cultural and professional expectations.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in NLP, Computer Vision, and Pytorch, which are key skills required for the job. The projects show experience in developing NLP and Computer Vision models using Python, PyTorch, and other relevant tools. The applicant has demonstrated the ability to work on cutting-edge technologies, analyze data, and develop and improve models, aligning with the job description. However, the applicant lacks direct experience in collecting and preprocessing text corpora, a key aspect of the job requirement. While the applicant's skills are impressive, this gap may impact their suitability for the role.</t>
+          <t>The applicant possesses strong skills in Computer Vision, PyTorch, and Python, which are directly in line with the required skills for the NLP Engineer position. The projects he has worked on demonstrate practical application of these skills in developing solutions for data analysis, model improvement, and language model responses. Although the applicant does not explicitly list NLP as a skill, his experience with Python and PyTorch indicates an aptitude for working with natural language processing. Furthermore, his development of a library management system using Django Rest Framework and ReactJS shows versatility and proficiency in web development, which could be valuable for the company. Overall, the applicant’s projects and skills align well with the job description, showcasing his ability to collect and preprocess text corpora, analyze data, and develop models for language model training in line with the company's requirements.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant demonstrates strong adaptability and a willingness to work in Japan. Their proactive approach to addressing weaknesses and ability to work well in a team, as evidenced by the answers provided, aligns with the company's soft skills requirements. The applicant's openness to learning a new language and interest in Japan's work culture further reflects their willingness to embrace new cultural experiences. Their ability to overcome challenges and foster collaborative problem-solving demonstrates strong problem-solving and teamwork skills. Overall, the applicant appears to be a good fit for the company's soft skill requirements and willingness to work in Japan.</t>
+          <t>The applicant exhibits strong adaptability, communication skills, and a positive attitude towards embracing new cultures, as evidenced by their willingness to work in Japan and learn a new language. They have expressed a keen interest in being part of the work culture in Japan, indicating a willingness to collaborate effectively with a team. The applicant’s proactive approach to addressing weaknesses and their ability to overcome challenges by fostering open communication and collaborative problem-solving reflect strong problem-solving skills and a commitment to continuous improvement. Their background in engineering and graphic design, as well as their specialization in data analytics, showcase a well-rounded skill set, and a capability to bridge technical and creative aspects. Overall, the applicant’s responses indicate suitability for the company’s soft skill requirements and a positive attitude towards working in Japan.</t>
         </is>
       </c>
     </row>
@@ -532,15 +532,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has experience in web development projects using JavaScript, HTML, and CSS, which demonstrates strong programming and front-end development skills. However, the job description specifically requires skills in NLP, Pytorch, Computer Vision, and Python, which the applicant does not possess based on the given projects and skills. While the applicant's experience in web development is commendable, it does not directly align with the company's requirements for a NLP Engineer. The applicant's technical skills are impressive but not entirely suitable for the specific role of NLP Engineer at the company.</t>
+          <t>The applicant has a strong experience with JavaScript, HTML, and CSS, showcasing web development skills. However, the job mainly requires expertise in NLP, Pytorch, Computer Vision, and Python, which are skills not prominently displayed in the applicant's projects. While the applicant's web development experience demonstrates technical skills and project management, there is a gap in the required domain-specific skills for the NLP Engineer role, resulting in a moderate score.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong communication skills by expressing a keen interest in working in Japan and adapting to a new culture. The responses indicate a willingness to collaborate with a team and a positive attitude towards overcoming challenges. The applicant's enthusiasm for learning new skills and contributing to advanced AI/ML technologies aligns with the company's expectations. However, the applicant also acknowledges the need to improve on working alone, which shows self-awareness and a willingness to address weaknesses. Overall, the applicant's responses reflect a strong personality and a high level of adaptability, making them well-suited for the company's soft skill requirements and their willingness to work in Japan.</t>
+          <t>The applicant has expressed a keen interest in working in Japan and has highlighted adaptability, teamwork, and problem-solving skills in the answers provided. The applicant's willingness to learn a new language and engage with the work culture in Japan demonstrates a positive attitude towards international work experience.</t>
         </is>
       </c>
     </row>
